--- a/ig/sd-add-ms/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/sd-add-ms/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T16:27:55+00:00</t>
+    <t>2024-01-24T16:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5516,7 +5516,7 @@
         <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>74</v>
@@ -6158,7 +6158,7 @@
         <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>74</v>

--- a/ig/sd-add-ms/StructureDefinition-ror-healthcareservice.xlsx
+++ b/ig/sd-add-ms/StructureDefinition-ror-healthcareservice.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T16:44:18+00:00</t>
+    <t>2024-01-24T16:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
